--- a/build2.7_260206/results/標準/2.7b_data2022_import4_wval100_unlim_fbal_results.xlsx
+++ b/build2.7_260206/results/標準/2.7b_data2022_import4_wval100_unlim_fbal_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikiyo\OneDrive\MAFF_2025\workspace simul\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE22688-2B50-4CB8-A058-A2EA359DDD53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525EE3A2-A322-4834-84C7-3BB6968927A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="7" xr2:uid="{0E88D751-2C4E-45D6-A2DC-3C1F225628EE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="7" xr2:uid="{10CAA099-A567-4B77-A533-776A8CE819C0}"/>
   </bookViews>
   <sheets>
     <sheet name="pcroprep" sheetId="1" r:id="rId1"/>
@@ -204,6 +204,12 @@
     <t>change</t>
   </si>
   <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>egg_dairy</t>
+  </si>
+  <si>
     <t>Hokkaido</t>
   </si>
   <si>
@@ -231,6 +237,57 @@
     <t>rapeseed</t>
   </si>
   <si>
+    <t>jan</t>
+  </si>
+  <si>
+    <t>feb</t>
+  </si>
+  <si>
+    <t>mar</t>
+  </si>
+  <si>
+    <t>apr</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>jun</t>
+  </si>
+  <si>
+    <t>jul</t>
+  </si>
+  <si>
+    <t>aug</t>
+  </si>
+  <si>
+    <t>sep</t>
+  </si>
+  <si>
+    <t>oct</t>
+  </si>
+  <si>
+    <t>nov</t>
+  </si>
+  <si>
+    <t>dec</t>
+  </si>
+  <si>
+    <t>paddy_wet</t>
+  </si>
+  <si>
+    <t>paddy_dry</t>
+  </si>
+  <si>
+    <t>field_rain</t>
+  </si>
+  <si>
+    <t>field_irr</t>
+  </si>
+  <si>
+    <t>orchard</t>
+  </si>
+  <si>
     <t>dairycow</t>
   </si>
   <si>
@@ -250,63 +307,6 @@
   </si>
   <si>
     <t>layinghens</t>
-  </si>
-  <si>
-    <t>meat</t>
-  </si>
-  <si>
-    <t>egg_dairy</t>
-  </si>
-  <si>
-    <t>jan</t>
-  </si>
-  <si>
-    <t>feb</t>
-  </si>
-  <si>
-    <t>mar</t>
-  </si>
-  <si>
-    <t>apr</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>jun</t>
-  </si>
-  <si>
-    <t>jul</t>
-  </si>
-  <si>
-    <t>aug</t>
-  </si>
-  <si>
-    <t>sep</t>
-  </si>
-  <si>
-    <t>oct</t>
-  </si>
-  <si>
-    <t>nov</t>
-  </si>
-  <si>
-    <t>dec</t>
-  </si>
-  <si>
-    <t>paddy_wet</t>
-  </si>
-  <si>
-    <t>paddy_dry</t>
-  </si>
-  <si>
-    <t>field_rain</t>
-  </si>
-  <si>
-    <t>field_irr</t>
-  </si>
-  <si>
-    <t>orchard</t>
   </si>
   <si>
     <t>nitrogen</t>
@@ -701,7 +701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DBB7CB3-3A9F-45BC-9F99-44A01625FEF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF008CB-65F2-4B7F-97C5-7CD35D551F74}">
   <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1809,7 +1809,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1CDBCE-A581-4961-84BC-4E06D4D5D12B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF74DE84-97F2-4AA3-9C1C-809A54249183}">
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2263,7 +2263,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C9C7AE-0567-4DA3-B7E5-BE0D14EC6738}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9E549B-7ED3-4D2F-8E2E-CAB522DC5E1E}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2690,7 +2690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF3D797-B947-4F41-B366-54565280362D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A546EB-6723-4E1A-BA21-66ABD7DF7ADF}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2997,7 +2997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA35D9A-6B5C-46A5-9C7D-CA77CAE91B4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE8B773-D5E4-41B3-9129-2E3D4EF1C112}">
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3457,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C28">
         <v>92.699999999999989</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C29">
         <v>303.7</v>
@@ -3497,7 +3497,7 @@
         <v>19</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C30">
         <v>92.699999999999989</v>
@@ -3517,7 +3517,7 @@
         <v>19</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C31">
         <v>303.7</v>
@@ -3537,7 +3537,7 @@
         <v>20</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C32">
         <v>92.699999999999989</v>
@@ -3557,7 +3557,7 @@
         <v>20</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C33">
         <v>303.7</v>
@@ -3579,7 +3579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E32798-1A24-4E65-A737-2712B06F8577}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46A06783-C3D5-437C-8F4C-291129F252AE}">
   <dimension ref="A1:Z56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3606,10 +3606,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>
@@ -3648,13 +3648,13 @@
         <v>17</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>18</v>
@@ -3665,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C2">
         <v>70.251835</v>
@@ -3688,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C3">
         <v>436.73298700000004</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C4">
         <v>718.93300899999986</v>
@@ -3731,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C5">
         <v>0.38930300000000001</v>
@@ -3783,7 +3783,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C7">
         <v>221.596</v>
@@ -3806,7 +3806,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C8">
         <v>861.03700000000003</v>
@@ -3826,7 +3826,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C9">
         <v>1258.4839999999999</v>
@@ -3846,7 +3846,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C10">
         <v>0.751</v>
@@ -3895,7 +3895,7 @@
         <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C12">
         <v>70.251835</v>
@@ -3918,7 +3918,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C13">
         <v>436.73298700000004</v>
@@ -3944,7 +3944,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C14">
         <v>718.93300899999986</v>
@@ -3964,7 +3964,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C15">
         <v>0.38930300000000001</v>
@@ -4090,61 +4090,61 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.55000000000000004">
@@ -4176,10 +4176,10 @@
         <v>8</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>18</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>18</v>
@@ -4211,7 +4211,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L21">
         <v>0.79594999999999927</v>
@@ -4231,7 +4231,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="H22">
         <v>302.97422189669032</v>
@@ -4257,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H23">
         <v>302.97422189669032</v>
@@ -4283,7 +4283,7 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H24">
         <v>454.31838689669036</v>
@@ -4312,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="H25">
         <v>454.31838689669036</v>
@@ -4344,7 +4344,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C26">
         <v>1226.3071339999997</v>
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C27">
         <v>1226.3071339999997</v>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C28">
         <v>1226.3071339999997</v>
@@ -4485,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C29">
         <v>1226.3071339999997</v>
@@ -4532,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C30">
         <v>1156.0552989999999</v>
@@ -4579,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="L31">
         <v>0.79594999999999927</v>
@@ -4599,7 +4599,7 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="L32">
         <v>0.79594999999999927</v>
@@ -4619,7 +4619,7 @@
         <v>19</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F33">
         <v>539.91268800000023</v>
@@ -4657,7 +4657,7 @@
         <v>19</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F34">
         <v>539.91268800000023</v>
@@ -4695,7 +4695,7 @@
         <v>19</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F35">
         <v>539.91268800000023</v>
@@ -4733,7 +4733,7 @@
         <v>19</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F36">
         <v>539.91268800000023</v>
@@ -4771,7 +4771,7 @@
         <v>19</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F37">
         <v>539.91268800000023</v>
@@ -4812,7 +4812,7 @@
         <v>19</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C38">
         <v>1226.3071339999997</v>
@@ -4859,7 +4859,7 @@
         <v>19</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C39">
         <v>1226.3071339999997</v>
@@ -4906,7 +4906,7 @@
         <v>19</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C40">
         <v>1226.3071339999997</v>
@@ -4947,7 +4947,7 @@
         <v>19</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C41">
         <v>1226.3071339999997</v>
@@ -4994,7 +4994,7 @@
         <v>19</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C42">
         <v>1156.0552989999999</v>
@@ -5041,7 +5041,7 @@
         <v>19</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F43">
         <v>539.91268800000023</v>
@@ -5079,7 +5079,7 @@
         <v>19</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F44">
         <v>539.91268800000023</v>
@@ -5117,7 +5117,7 @@
         <v>20</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L45">
         <v>0.79594999999999771</v>
@@ -5137,7 +5137,7 @@
         <v>20</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="H46">
         <v>271.3468618966902</v>
@@ -5166,7 +5166,7 @@
         <v>20</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H47">
         <v>271.3468618966902</v>
@@ -5195,7 +5195,7 @@
         <v>20</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H48">
         <v>422.69102689669018</v>
@@ -5224,7 +5224,7 @@
         <v>20</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="H49">
         <v>422.69102689669018</v>
@@ -5256,7 +5256,7 @@
         <v>20</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C50">
         <v>1226.3071339999997</v>
@@ -5303,7 +5303,7 @@
         <v>20</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C51">
         <v>1226.3071339999997</v>
@@ -5350,7 +5350,7 @@
         <v>20</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C52">
         <v>1226.3071339999997</v>
@@ -5397,7 +5397,7 @@
         <v>20</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C53">
         <v>1226.3071339999997</v>
@@ -5444,7 +5444,7 @@
         <v>20</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C54">
         <v>1156.0552989999999</v>
@@ -5491,7 +5491,7 @@
         <v>20</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="L55">
         <v>0.79594999999999771</v>
@@ -5511,7 +5511,7 @@
         <v>20</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="L56">
         <v>0.79594999999999771</v>
@@ -5533,7 +5533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5048E77-09AA-40AF-8236-23E5253D5E89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981B31F6-C81E-4A17-B8D9-599D22697F79}">
   <dimension ref="A1:AF5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5560,10 +5560,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>7</v>
@@ -5602,34 +5602,34 @@
         <v>17</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>18</v>
@@ -5842,7 +5842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61CEB8FA-99D9-4652-B6DD-1C03837DF44A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DF353D-2542-436D-81DD-279B5EC7DA4D}">
   <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5869,10 +5869,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>
@@ -5911,13 +5911,13 @@
         <v>17</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>18</v>
